--- a/Project_note.xlsx
+++ b/Project_note.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="19005" windowHeight="7770"/>
+    <workbookView xWindow="6510" yWindow="0" windowWidth="19005" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="81">
   <si>
     <t>Dự án smarthome cho bản thân</t>
   </si>
@@ -130,12 +130,6 @@
   </si>
   <si>
     <t>Kiểu giá trị cho lệnh điều khiển</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Đèn thường</t>
   </si>
   <si>
     <t>Đèn sợi đốt</t>
@@ -244,6 +238,39 @@
   </si>
   <si>
     <t>II. Thiết kế flowchart hệ thống</t>
+  </si>
+  <si>
+    <t>Mã thiết bị</t>
+  </si>
+  <si>
+    <t>Giải nghĩa mã viết tắt</t>
+  </si>
+  <si>
+    <t>HTGroup - Smart room - Node - On/Off - Ver1</t>
+  </si>
+  <si>
+    <t>HTSN-OF01</t>
+  </si>
+  <si>
+    <t>HTSN-FA01</t>
+  </si>
+  <si>
+    <t>HTSN-ID01</t>
+  </si>
+  <si>
+    <t>HTGroup - Smart room - Node - Incandescent - Ver1</t>
+  </si>
+  <si>
+    <t>HTGroup - Smart room - Node - Fan - Ver1</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Mã source code</t>
+  </si>
+  <si>
+    <t>Node_onOff</t>
   </si>
 </sst>
 </file>
@@ -463,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -488,6 +515,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -511,9 +542,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7248,7 +7276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
@@ -7258,28 +7286,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -7899,8 +7927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7909,31 +7937,33 @@
     <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.140625" customWidth="1"/>
+    <col min="8" max="8" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -7951,6 +7981,9 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="D8" s="13" t="s">
         <v>31</v>
       </c>
@@ -7961,78 +7994,127 @@
         <v>33</v>
       </c>
       <c r="G8" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="13">
+        <v>2</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D9" s="13" t="s">
+      <c r="E10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="13">
+        <v>3</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="13" t="s">
+      <c r="E11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D11" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="C12" s="13">
+        <v>4</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="13">
+        <v>5</v>
+      </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="13">
+        <v>6</v>
+      </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="13">
+        <v>7</v>
+      </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -8059,62 +8141,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="A1" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E31" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E32" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="5:23" x14ac:dyDescent="0.3">
       <c r="E33" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="5:23" x14ac:dyDescent="0.3">
       <c r="H35" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="5:23" x14ac:dyDescent="0.3">
       <c r="H36" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="5:23" x14ac:dyDescent="0.3">
@@ -8129,7 +8211,7 @@
     </row>
     <row r="40" spans="5:23" x14ac:dyDescent="0.3">
       <c r="J40" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P40" s="20"/>
       <c r="Q40" s="20"/>
@@ -8142,45 +8224,45 @@
     </row>
     <row r="41" spans="5:23" x14ac:dyDescent="0.3">
       <c r="L41" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N41" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P41" s="20"/>
       <c r="Q41" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R41" s="21"/>
       <c r="S41" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T41" s="21"/>
       <c r="U41" s="21"/>
       <c r="V41" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="W41" s="20"/>
     </row>
     <row r="42" spans="5:23" x14ac:dyDescent="0.3">
       <c r="L42" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N42" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P42" s="20"/>
       <c r="Q42" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R42" s="21"/>
       <c r="S42" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="T42" s="21"/>
       <c r="U42" s="21"/>
       <c r="V42" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W42" s="20"/>
     </row>
@@ -8196,7 +8278,7 @@
     </row>
     <row r="45" spans="5:23" x14ac:dyDescent="0.3">
       <c r="L45" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M45" s="20"/>
       <c r="N45" s="20"/>
@@ -8212,57 +8294,57 @@
     </row>
     <row r="50" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N50" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N51" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P51" s="20"/>
       <c r="Q51" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R51" s="20"/>
       <c r="T51" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N52" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q52" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T52" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N53" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q53" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T53" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="14:20" x14ac:dyDescent="0.3">
       <c r="Q55" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="14:20" x14ac:dyDescent="0.3">
       <c r="S60" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U65" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -8286,31 +8368,31 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="A1" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E8" s="30"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G10" s="17"/>
@@ -8335,26 +8417,26 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
